--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BF/20/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>5.2818</v>
+        <v>5.207399999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>13.8953</v>
+        <v>13.8224</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.07899999999999</v>
+        <v>13.13369999999999</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.214499999999997</v>
+        <v>9.276499999999992</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.3531</v>
+        <v>12.5066</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.383099999999995</v>
+        <v>5.0406</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.129799999999992</v>
+        <v>5.050999999999993</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>14.38819999999999</v>
+        <v>14.2064</v>
       </c>
     </row>
     <row r="9">
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.7591</v>
+        <v>9.131300000000007</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -712,7 +712,7 @@
         <v>-4.8</v>
       </c>
       <c r="E16" t="n">
-        <v>12.5621</v>
+        <v>12.3603</v>
       </c>
     </row>
     <row r="17">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.3979</v>
+        <v>5.506999999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.169599999999998</v>
+        <v>5.122800000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.17629999999999</v>
+        <v>12.13389999999999</v>
       </c>
     </row>
     <row r="23">
